--- a/data/vgp_database/SW_USA_composite.xlsx
+++ b/data/vgp_database/SW_USA_composite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF7A1C-5427-0241-AE9A-8FA16DB143F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468F264-3879-0641-9C0B-EC56B7412B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="680" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="384">
   <si>
     <t>Name:</t>
   </si>
@@ -903,9 +903,6 @@
   </si>
   <si>
     <t>Not Specified</t>
-  </si>
-  <si>
-    <t>Rholite</t>
   </si>
   <si>
     <t>Tuff</t>
@@ -1589,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X143" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP102"/>
+    <sheetView tabSelected="1" topLeftCell="S36" workbookViewId="0">
+      <selection activeCell="AB69" sqref="AB69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2311,7 +2308,7 @@
       <c r="AN9" s="16"/>
       <c r="AO9" s="16"/>
       <c r="AP9" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2417,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="AP10" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2523,7 +2520,7 @@
         <v>69</v>
       </c>
       <c r="AP11" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2629,7 +2626,7 @@
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
       <c r="AP12" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2735,7 +2732,7 @@
         <v>69</v>
       </c>
       <c r="AP13" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,7 +2842,7 @@
         <v>78</v>
       </c>
       <c r="AP14" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2955,7 +2952,7 @@
       </c>
       <c r="AO15" s="16"/>
       <c r="AP15" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,7 +3058,7 @@
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
       <c r="AP16" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,7 +3164,7 @@
       <c r="AN17" s="16"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,7 +3270,7 @@
         <v>69</v>
       </c>
       <c r="AP18" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,7 +3376,7 @@
         <v>69</v>
       </c>
       <c r="AP19" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3485,7 +3482,7 @@
         <v>69</v>
       </c>
       <c r="AP20" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,7 +3588,7 @@
         <v>69</v>
       </c>
       <c r="AP21" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3697,7 +3694,7 @@
         <v>69</v>
       </c>
       <c r="AP22" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3803,7 +3800,7 @@
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
       <c r="AP23" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,7 +3906,7 @@
         <v>104</v>
       </c>
       <c r="AP24" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4015,7 +4012,7 @@
         <v>104</v>
       </c>
       <c r="AP25" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4121,7 +4118,7 @@
       <c r="AN26" s="16"/>
       <c r="AO26" s="16"/>
       <c r="AP26" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4227,7 +4224,7 @@
         <v>104</v>
       </c>
       <c r="AP27" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4337,7 +4334,7 @@
       </c>
       <c r="AO28" s="16"/>
       <c r="AP28" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4443,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="AP29" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4553,7 +4550,7 @@
       </c>
       <c r="AO30" s="16"/>
       <c r="AP30" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4663,7 +4660,7 @@
         <v>104</v>
       </c>
       <c r="AP31" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4773,7 +4770,7 @@
         <v>104</v>
       </c>
       <c r="AP32" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4879,7 +4876,7 @@
       <c r="AN33" s="16"/>
       <c r="AO33" s="16"/>
       <c r="AP33" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4985,7 +4982,7 @@
       <c r="AN34" s="16"/>
       <c r="AO34" s="16"/>
       <c r="AP34" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5091,7 +5088,7 @@
       <c r="AN35" s="16"/>
       <c r="AO35" s="16"/>
       <c r="AP35" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,7 +5194,7 @@
       <c r="AN36" s="16"/>
       <c r="AO36" s="16"/>
       <c r="AP36" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,7 +5300,7 @@
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5409,7 +5406,7 @@
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
       <c r="AP38" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5515,7 +5512,7 @@
         <v>104</v>
       </c>
       <c r="AP39" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5621,7 +5618,7 @@
         <v>104</v>
       </c>
       <c r="AP40" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5731,7 +5728,7 @@
         <v>104</v>
       </c>
       <c r="AP41" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5837,7 +5834,7 @@
         <v>104</v>
       </c>
       <c r="AP42" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5943,7 +5940,7 @@
         <v>104</v>
       </c>
       <c r="AP43" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6049,7 +6046,7 @@
         <v>154</v>
       </c>
       <c r="AP44" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6155,7 +6152,7 @@
       <c r="AN45" s="16"/>
       <c r="AO45" s="16"/>
       <c r="AP45" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6261,7 +6258,7 @@
       <c r="AN46" s="16"/>
       <c r="AO46" s="16"/>
       <c r="AP46" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,7 +6368,7 @@
       </c>
       <c r="AO47" s="16"/>
       <c r="AP47" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6477,7 +6474,7 @@
       <c r="AN48" s="16"/>
       <c r="AO48" s="16"/>
       <c r="AP48" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6580,7 @@
         <v>165</v>
       </c>
       <c r="AP49" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6689,7 +6686,7 @@
         <v>165</v>
       </c>
       <c r="AP50" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6799,7 +6796,7 @@
         <v>165</v>
       </c>
       <c r="AP51" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6905,7 +6902,7 @@
       <c r="AN52" s="16"/>
       <c r="AO52" s="16"/>
       <c r="AP52" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7011,7 +7008,7 @@
       <c r="AN53" s="16"/>
       <c r="AO53" s="16"/>
       <c r="AP53" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7117,7 +7114,7 @@
       <c r="AN54" s="16"/>
       <c r="AO54" s="16"/>
       <c r="AP54" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7223,7 +7220,7 @@
       <c r="AN55" s="16"/>
       <c r="AO55" s="16"/>
       <c r="AP55" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7329,7 +7326,7 @@
         <v>165</v>
       </c>
       <c r="AP56" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7433,7 +7430,7 @@
         <v>165</v>
       </c>
       <c r="AP57" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7539,7 +7536,7 @@
       <c r="AN58" s="16"/>
       <c r="AO58" s="16"/>
       <c r="AP58" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7647,7 +7644,7 @@
         <v>165</v>
       </c>
       <c r="AP59" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,7 +7752,7 @@
         <v>165</v>
       </c>
       <c r="AP60" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7861,7 +7858,7 @@
         <v>165</v>
       </c>
       <c r="AP61" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7967,7 +7964,7 @@
         <v>165</v>
       </c>
       <c r="AP62" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8073,7 +8070,7 @@
       <c r="AN63" s="16"/>
       <c r="AO63" s="16"/>
       <c r="AP63" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8179,7 +8176,7 @@
       <c r="AN64" s="16"/>
       <c r="AO64" s="16"/>
       <c r="AP64" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8289,7 +8286,7 @@
       </c>
       <c r="AO65" s="16"/>
       <c r="AP65" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8395,7 +8392,7 @@
       <c r="AN66" s="16"/>
       <c r="AO66" s="16"/>
       <c r="AP66" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8501,7 +8498,7 @@
       <c r="AN67" s="16"/>
       <c r="AO67" s="16"/>
       <c r="AP67" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8607,7 +8604,7 @@
       <c r="AN68" s="16"/>
       <c r="AO68" s="16"/>
       <c r="AP68" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8679,7 +8676,7 @@
         <v>279</v>
       </c>
       <c r="AB69" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AC69" s="19" t="s">
         <v>65</v>
@@ -8713,7 +8710,7 @@
       <c r="AN69" s="16"/>
       <c r="AO69" s="16"/>
       <c r="AP69" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8821,7 +8818,7 @@
         <v>205</v>
       </c>
       <c r="AP70" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8929,7 +8926,7 @@
         <v>205</v>
       </c>
       <c r="AP71" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9035,7 +9032,7 @@
       <c r="AN72" s="16"/>
       <c r="AO72" s="16"/>
       <c r="AP72" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9147,7 +9144,7 @@
       </c>
       <c r="AO73" s="16"/>
       <c r="AP73" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9257,7 +9254,7 @@
       </c>
       <c r="AO74" s="16"/>
       <c r="AP74" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9367,7 +9364,7 @@
         <v>205</v>
       </c>
       <c r="AP75" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9475,7 +9472,7 @@
       <c r="AN76" s="16"/>
       <c r="AO76" s="16"/>
       <c r="AP76" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9583,7 +9580,7 @@
       <c r="AN77" s="16"/>
       <c r="AO77" s="16"/>
       <c r="AP77" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9691,7 +9688,7 @@
         <v>220</v>
       </c>
       <c r="AP78" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9801,7 +9798,7 @@
         <v>220</v>
       </c>
       <c r="AP79" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9909,7 +9906,7 @@
       <c r="AN80" s="16"/>
       <c r="AO80" s="16"/>
       <c r="AP80" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10021,7 +10018,7 @@
         <v>228</v>
       </c>
       <c r="AP81" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10137,7 +10134,7 @@
         <v>231</v>
       </c>
       <c r="AP82" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10249,7 +10246,7 @@
       </c>
       <c r="AO83" s="16"/>
       <c r="AP83" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10363,7 +10360,7 @@
         <v>228</v>
       </c>
       <c r="AP84" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10475,7 +10472,7 @@
         <v>228</v>
       </c>
       <c r="AP85" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10544,7 +10541,7 @@
         <v>278</v>
       </c>
       <c r="AA86" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB86" s="15" t="s">
         <v>286</v>
@@ -10583,7 +10580,7 @@
       <c r="AN86" s="16"/>
       <c r="AO86" s="16"/>
       <c r="AP86" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10652,7 +10649,7 @@
         <v>278</v>
       </c>
       <c r="AA87" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB87" s="15" t="s">
         <v>286</v>
@@ -10691,7 +10688,7 @@
       <c r="AN87" s="16"/>
       <c r="AO87" s="16"/>
       <c r="AP87" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10760,7 +10757,7 @@
         <v>278</v>
       </c>
       <c r="AA88" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB88" s="15" t="s">
         <v>286</v>
@@ -10797,7 +10794,7 @@
       <c r="AN88" s="16"/>
       <c r="AO88" s="16"/>
       <c r="AP88" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10903,7 +10900,7 @@
       <c r="AN89" s="16"/>
       <c r="AO89" s="16"/>
       <c r="AP89" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11009,7 +11006,7 @@
         <v>248</v>
       </c>
       <c r="AP90" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11117,7 +11114,7 @@
       <c r="AN91" s="16"/>
       <c r="AO91" s="16"/>
       <c r="AP91" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11221,7 +11218,7 @@
       <c r="AN92" s="16"/>
       <c r="AO92" s="16"/>
       <c r="AP92" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11327,7 +11324,7 @@
       <c r="AN93" s="16"/>
       <c r="AO93" s="16"/>
       <c r="AP93" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11433,7 +11430,7 @@
       <c r="AN94" s="16"/>
       <c r="AO94" s="16"/>
       <c r="AP94" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11539,7 +11536,7 @@
         <v>259</v>
       </c>
       <c r="AP95" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11645,7 +11642,7 @@
       <c r="AN96" s="16"/>
       <c r="AO96" s="16"/>
       <c r="AP96" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11751,7 +11748,7 @@
         <v>264</v>
       </c>
       <c r="AP97" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11857,7 +11854,7 @@
       <c r="AN98" s="16"/>
       <c r="AO98" s="16"/>
       <c r="AP98" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11963,7 +11960,7 @@
       <c r="AN99" s="16"/>
       <c r="AO99" s="16"/>
       <c r="AP99" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12069,7 +12066,7 @@
       <c r="AN100" s="16"/>
       <c r="AO100" s="16"/>
       <c r="AP100" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,7 +12172,7 @@
         <v>271</v>
       </c>
       <c r="AP101" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12281,7 +12278,7 @@
       <c r="AN102" s="26"/>
       <c r="AO102" s="26"/>
       <c r="AP102" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/vgp_database/SW_USA_composite.xlsx
+++ b/data/vgp_database/SW_USA_composite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468F264-3879-0641-9C0B-EC56B7412B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F91CEB-0959-424B-8713-0C9698832E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="291">
   <si>
     <t>Name:</t>
   </si>
@@ -910,285 +910,6 @@
   <si>
     <t>10.1029/2008GC001957</t>
   </si>
-  <si>
-    <t>10.1029/2008GC001958</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001959</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001960</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001961</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001962</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001963</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001964</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001965</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001966</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001967</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001968</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001969</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001970</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001971</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001972</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001973</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001974</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001975</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001976</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001977</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001978</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001979</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001980</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001981</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001982</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001983</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001984</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001985</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001986</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001987</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001988</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001989</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001990</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001991</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001992</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001993</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001994</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001995</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001996</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001997</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001998</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC001999</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002000</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002001</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002002</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002003</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002004</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002005</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002006</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002007</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002008</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002009</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002010</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002011</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002012</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002013</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002014</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002015</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002016</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002017</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002018</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002019</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002020</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002021</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002022</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002023</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002024</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002025</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002026</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002027</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002028</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002029</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002030</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002031</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002032</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002033</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002034</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002035</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002036</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002037</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002038</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002039</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002040</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002041</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002042</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002043</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002044</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002045</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002046</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002047</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002048</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002049</t>
-  </si>
-  <si>
-    <t>10.1029/2008GC002050</t>
-  </si>
 </sst>
 </file>
 
@@ -1586,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S36" workbookViewId="0">
-      <selection activeCell="AB69" sqref="AB69"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10:AP102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1347,9 @@
     <col min="33" max="33" width="11.1640625" customWidth="1"/>
     <col min="34" max="34" width="10.5" customWidth="1"/>
     <col min="35" max="35" width="14.5" customWidth="1"/>
-    <col min="36" max="43" width="10.5" customWidth="1"/>
+    <col min="36" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="39" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,8 +2136,9 @@
       <c r="AO10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP10" s="29" t="s">
-        <v>291</v>
+      <c r="AP10" s="29" t="str">
+        <f>AP9</f>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2519,8 +2243,9 @@
       <c r="AO11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP11" s="29" t="s">
-        <v>292</v>
+      <c r="AP11" s="29" t="str">
+        <f t="shared" ref="AP11:AP74" si="0">AP10</f>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,8 +2350,9 @@
       </c>
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
-      <c r="AP12" s="29" t="s">
-        <v>293</v>
+      <c r="AP12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,8 +2457,9 @@
       <c r="AO13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP13" s="29" t="s">
-        <v>294</v>
+      <c r="AP13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,8 +2568,9 @@
       <c r="AO14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AP14" s="29" t="s">
-        <v>295</v>
+      <c r="AP14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,8 +2679,9 @@
         <v>82</v>
       </c>
       <c r="AO15" s="16"/>
-      <c r="AP15" s="29" t="s">
-        <v>296</v>
+      <c r="AP15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3057,8 +2786,9 @@
       </c>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
-      <c r="AP16" s="29" t="s">
-        <v>297</v>
+      <c r="AP16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,8 +2893,9 @@
       </c>
       <c r="AN17" s="16"/>
       <c r="AO17" s="16"/>
-      <c r="AP17" s="29" t="s">
-        <v>298</v>
+      <c r="AP17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3269,8 +3000,9 @@
       <c r="AO18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP18" s="29" t="s">
-        <v>299</v>
+      <c r="AP18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,8 +3107,9 @@
       <c r="AO19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP19" s="29" t="s">
-        <v>300</v>
+      <c r="AP19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,8 +3214,9 @@
       <c r="AO20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP20" s="29" t="s">
-        <v>301</v>
+      <c r="AP20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3587,8 +3321,9 @@
       <c r="AO21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP21" s="29" t="s">
-        <v>302</v>
+      <c r="AP21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3693,8 +3428,9 @@
       <c r="AO22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP22" s="29" t="s">
-        <v>303</v>
+      <c r="AP22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,8 +3535,9 @@
       </c>
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
-      <c r="AP23" s="29" t="s">
-        <v>304</v>
+      <c r="AP23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3905,8 +3642,9 @@
       <c r="AO24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP24" s="29" t="s">
-        <v>305</v>
+      <c r="AP24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4011,8 +3749,9 @@
       <c r="AO25" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP25" s="29" t="s">
-        <v>306</v>
+      <c r="AP25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4117,8 +3856,9 @@
       </c>
       <c r="AN26" s="16"/>
       <c r="AO26" s="16"/>
-      <c r="AP26" s="29" t="s">
-        <v>307</v>
+      <c r="AP26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4223,8 +3963,9 @@
       <c r="AO27" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP27" s="29" t="s">
-        <v>308</v>
+      <c r="AP27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4333,8 +4074,9 @@
         <v>82</v>
       </c>
       <c r="AO28" s="16"/>
-      <c r="AP28" s="29" t="s">
-        <v>309</v>
+      <c r="AP28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4439,8 +4181,9 @@
       <c r="AO29" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP29" s="29" t="s">
-        <v>310</v>
+      <c r="AP29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4549,8 +4292,9 @@
         <v>120</v>
       </c>
       <c r="AO30" s="16"/>
-      <c r="AP30" s="29" t="s">
-        <v>311</v>
+      <c r="AP30" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,8 +4403,9 @@
       <c r="AO31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP31" s="29" t="s">
-        <v>312</v>
+      <c r="AP31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,8 +4514,9 @@
       <c r="AO32" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP32" s="29" t="s">
-        <v>313</v>
+      <c r="AP32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4875,8 +4621,9 @@
       </c>
       <c r="AN33" s="16"/>
       <c r="AO33" s="16"/>
-      <c r="AP33" s="29" t="s">
-        <v>314</v>
+      <c r="AP33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4981,8 +4728,9 @@
       </c>
       <c r="AN34" s="16"/>
       <c r="AO34" s="16"/>
-      <c r="AP34" s="29" t="s">
-        <v>315</v>
+      <c r="AP34" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5087,8 +4835,9 @@
       </c>
       <c r="AN35" s="16"/>
       <c r="AO35" s="16"/>
-      <c r="AP35" s="29" t="s">
-        <v>316</v>
+      <c r="AP35" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5193,8 +4942,9 @@
       </c>
       <c r="AN36" s="16"/>
       <c r="AO36" s="16"/>
-      <c r="AP36" s="29" t="s">
-        <v>317</v>
+      <c r="AP36" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5299,8 +5049,9 @@
       </c>
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
-      <c r="AP37" s="29" t="s">
-        <v>318</v>
+      <c r="AP37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5405,8 +5156,9 @@
       </c>
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
-      <c r="AP38" s="29" t="s">
-        <v>319</v>
+      <c r="AP38" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5511,8 +5263,9 @@
       <c r="AO39" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP39" s="29" t="s">
-        <v>320</v>
+      <c r="AP39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5617,8 +5370,9 @@
       <c r="AO40" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP40" s="29" t="s">
-        <v>321</v>
+      <c r="AP40" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,8 +5481,9 @@
       <c r="AO41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP41" s="29" t="s">
-        <v>322</v>
+      <c r="AP41" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5833,8 +5588,9 @@
       <c r="AO42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP42" s="29" t="s">
-        <v>323</v>
+      <c r="AP42" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5939,8 +5695,9 @@
       <c r="AO43" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AP43" s="29" t="s">
-        <v>324</v>
+      <c r="AP43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6045,8 +5802,9 @@
       <c r="AO44" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="AP44" s="29" t="s">
-        <v>325</v>
+      <c r="AP44" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6151,8 +5909,9 @@
       </c>
       <c r="AN45" s="16"/>
       <c r="AO45" s="16"/>
-      <c r="AP45" s="29" t="s">
-        <v>326</v>
+      <c r="AP45" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6257,8 +6016,9 @@
       </c>
       <c r="AN46" s="16"/>
       <c r="AO46" s="16"/>
-      <c r="AP46" s="29" t="s">
-        <v>327</v>
+      <c r="AP46" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6367,8 +6127,9 @@
         <v>161</v>
       </c>
       <c r="AO47" s="16"/>
-      <c r="AP47" s="29" t="s">
-        <v>328</v>
+      <c r="AP47" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6473,8 +6234,9 @@
       </c>
       <c r="AN48" s="16"/>
       <c r="AO48" s="16"/>
-      <c r="AP48" s="29" t="s">
-        <v>329</v>
+      <c r="AP48" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="49" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6579,8 +6341,9 @@
       <c r="AO49" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP49" s="29" t="s">
-        <v>330</v>
+      <c r="AP49" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6685,8 +6448,9 @@
       <c r="AO50" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP50" s="29" t="s">
-        <v>331</v>
+      <c r="AP50" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6795,8 +6559,9 @@
       <c r="AO51" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP51" s="29" t="s">
-        <v>332</v>
+      <c r="AP51" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6901,8 +6666,9 @@
       </c>
       <c r="AN52" s="16"/>
       <c r="AO52" s="16"/>
-      <c r="AP52" s="29" t="s">
-        <v>333</v>
+      <c r="AP52" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7007,8 +6773,9 @@
       </c>
       <c r="AN53" s="16"/>
       <c r="AO53" s="16"/>
-      <c r="AP53" s="29" t="s">
-        <v>334</v>
+      <c r="AP53" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7113,8 +6880,9 @@
       </c>
       <c r="AN54" s="16"/>
       <c r="AO54" s="16"/>
-      <c r="AP54" s="29" t="s">
-        <v>335</v>
+      <c r="AP54" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7219,8 +6987,9 @@
       </c>
       <c r="AN55" s="16"/>
       <c r="AO55" s="16"/>
-      <c r="AP55" s="29" t="s">
-        <v>336</v>
+      <c r="AP55" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="56" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7325,8 +7094,9 @@
       <c r="AO56" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP56" s="29" t="s">
-        <v>337</v>
+      <c r="AP56" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="57" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7429,8 +7199,9 @@
       <c r="AO57" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP57" s="29" t="s">
-        <v>338</v>
+      <c r="AP57" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="58" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7535,8 +7306,9 @@
       </c>
       <c r="AN58" s="16"/>
       <c r="AO58" s="16"/>
-      <c r="AP58" s="29" t="s">
-        <v>339</v>
+      <c r="AP58" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7643,8 +7415,9 @@
       <c r="AO59" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP59" s="29" t="s">
-        <v>340</v>
+      <c r="AP59" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7751,8 +7524,9 @@
       <c r="AO60" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP60" s="29" t="s">
-        <v>341</v>
+      <c r="AP60" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="61" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7857,8 +7631,9 @@
       <c r="AO61" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP61" s="29" t="s">
-        <v>342</v>
+      <c r="AP61" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7963,8 +7738,9 @@
       <c r="AO62" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AP62" s="29" t="s">
-        <v>343</v>
+      <c r="AP62" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="63" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8069,8 +7845,9 @@
       </c>
       <c r="AN63" s="16"/>
       <c r="AO63" s="16"/>
-      <c r="AP63" s="29" t="s">
-        <v>344</v>
+      <c r="AP63" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8175,8 +7952,9 @@
       </c>
       <c r="AN64" s="16"/>
       <c r="AO64" s="16"/>
-      <c r="AP64" s="29" t="s">
-        <v>345</v>
+      <c r="AP64" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8285,8 +8063,9 @@
         <v>103</v>
       </c>
       <c r="AO65" s="16"/>
-      <c r="AP65" s="29" t="s">
-        <v>346</v>
+      <c r="AP65" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="66" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8391,8 +8170,9 @@
       </c>
       <c r="AN66" s="16"/>
       <c r="AO66" s="16"/>
-      <c r="AP66" s="29" t="s">
-        <v>347</v>
+      <c r="AP66" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="67" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8497,8 +8277,9 @@
       </c>
       <c r="AN67" s="16"/>
       <c r="AO67" s="16"/>
-      <c r="AP67" s="29" t="s">
-        <v>348</v>
+      <c r="AP67" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="68" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8603,8 +8384,9 @@
       </c>
       <c r="AN68" s="16"/>
       <c r="AO68" s="16"/>
-      <c r="AP68" s="29" t="s">
-        <v>349</v>
+      <c r="AP68" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="69" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8709,8 +8491,9 @@
       </c>
       <c r="AN69" s="16"/>
       <c r="AO69" s="16"/>
-      <c r="AP69" s="29" t="s">
-        <v>350</v>
+      <c r="AP69" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="70" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8817,8 +8600,9 @@
       <c r="AO70" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="AP70" s="29" t="s">
-        <v>351</v>
+      <c r="AP70" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="71" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8925,8 +8709,9 @@
       <c r="AO71" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="AP71" s="29" t="s">
-        <v>352</v>
+      <c r="AP71" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="72" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9031,8 +8816,9 @@
       </c>
       <c r="AN72" s="16"/>
       <c r="AO72" s="16"/>
-      <c r="AP72" s="29" t="s">
-        <v>353</v>
+      <c r="AP72" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="73" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9143,8 +8929,9 @@
         <v>212</v>
       </c>
       <c r="AO73" s="16"/>
-      <c r="AP73" s="29" t="s">
-        <v>354</v>
+      <c r="AP73" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="74" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9253,8 +9040,9 @@
         <v>212</v>
       </c>
       <c r="AO74" s="16"/>
-      <c r="AP74" s="29" t="s">
-        <v>355</v>
+      <c r="AP74" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="75" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9363,8 +9151,9 @@
       <c r="AO75" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="AP75" s="29" t="s">
-        <v>356</v>
+      <c r="AP75" s="29" t="str">
+        <f t="shared" ref="AP75:AP102" si="1">AP74</f>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="76" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9471,8 +9260,9 @@
       </c>
       <c r="AN76" s="16"/>
       <c r="AO76" s="16"/>
-      <c r="AP76" s="29" t="s">
-        <v>357</v>
+      <c r="AP76" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="77" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9579,8 +9369,9 @@
       </c>
       <c r="AN77" s="16"/>
       <c r="AO77" s="16"/>
-      <c r="AP77" s="29" t="s">
-        <v>358</v>
+      <c r="AP77" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9687,8 +9478,9 @@
       <c r="AO78" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="AP78" s="29" t="s">
-        <v>359</v>
+      <c r="AP78" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="79" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9797,8 +9589,9 @@
       <c r="AO79" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="AP79" s="29" t="s">
-        <v>360</v>
+      <c r="AP79" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="80" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9905,8 +9698,9 @@
       </c>
       <c r="AN80" s="16"/>
       <c r="AO80" s="16"/>
-      <c r="AP80" s="29" t="s">
-        <v>361</v>
+      <c r="AP80" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="81" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10017,8 +9811,9 @@
       <c r="AO81" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AP81" s="29" t="s">
-        <v>362</v>
+      <c r="AP81" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="82" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10133,8 +9928,9 @@
       <c r="AO82" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AP82" s="29" t="s">
-        <v>363</v>
+      <c r="AP82" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10245,8 +10041,9 @@
         <v>227</v>
       </c>
       <c r="AO83" s="16"/>
-      <c r="AP83" s="29" t="s">
-        <v>364</v>
+      <c r="AP83" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="84" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10359,8 +10156,9 @@
       <c r="AO84" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AP84" s="29" t="s">
-        <v>365</v>
+      <c r="AP84" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="85" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10471,8 +10269,9 @@
       <c r="AO85" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AP85" s="29" t="s">
-        <v>366</v>
+      <c r="AP85" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="86" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10579,8 +10378,9 @@
       </c>
       <c r="AN86" s="16"/>
       <c r="AO86" s="16"/>
-      <c r="AP86" s="29" t="s">
-        <v>367</v>
+      <c r="AP86" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="87" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10687,8 +10487,9 @@
       </c>
       <c r="AN87" s="16"/>
       <c r="AO87" s="16"/>
-      <c r="AP87" s="29" t="s">
-        <v>368</v>
+      <c r="AP87" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="88" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10793,8 +10594,9 @@
       </c>
       <c r="AN88" s="16"/>
       <c r="AO88" s="16"/>
-      <c r="AP88" s="29" t="s">
-        <v>369</v>
+      <c r="AP88" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10899,8 +10701,9 @@
       </c>
       <c r="AN89" s="16"/>
       <c r="AO89" s="16"/>
-      <c r="AP89" s="29" t="s">
-        <v>370</v>
+      <c r="AP89" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11005,8 +10808,9 @@
       <c r="AO90" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="AP90" s="29" t="s">
-        <v>371</v>
+      <c r="AP90" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11113,8 +10917,9 @@
       </c>
       <c r="AN91" s="16"/>
       <c r="AO91" s="16"/>
-      <c r="AP91" s="29" t="s">
-        <v>372</v>
+      <c r="AP91" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="92" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11217,8 +11022,9 @@
       <c r="AM92" s="16"/>
       <c r="AN92" s="16"/>
       <c r="AO92" s="16"/>
-      <c r="AP92" s="29" t="s">
-        <v>373</v>
+      <c r="AP92" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="93" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11323,8 +11129,9 @@
       </c>
       <c r="AN93" s="16"/>
       <c r="AO93" s="16"/>
-      <c r="AP93" s="29" t="s">
-        <v>374</v>
+      <c r="AP93" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="94" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11429,8 +11236,9 @@
       </c>
       <c r="AN94" s="16"/>
       <c r="AO94" s="16"/>
-      <c r="AP94" s="29" t="s">
-        <v>375</v>
+      <c r="AP94" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11535,8 +11343,9 @@
       <c r="AO95" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="AP95" s="29" t="s">
-        <v>376</v>
+      <c r="AP95" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11641,8 +11450,9 @@
       </c>
       <c r="AN96" s="16"/>
       <c r="AO96" s="16"/>
-      <c r="AP96" s="29" t="s">
-        <v>377</v>
+      <c r="AP96" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11747,8 +11557,9 @@
       <c r="AO97" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="AP97" s="29" t="s">
-        <v>378</v>
+      <c r="AP97" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11853,8 +11664,9 @@
       </c>
       <c r="AN98" s="16"/>
       <c r="AO98" s="16"/>
-      <c r="AP98" s="29" t="s">
-        <v>379</v>
+      <c r="AP98" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11959,8 +11771,9 @@
       </c>
       <c r="AN99" s="16"/>
       <c r="AO99" s="16"/>
-      <c r="AP99" s="29" t="s">
-        <v>380</v>
+      <c r="AP99" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12065,8 +11878,9 @@
       </c>
       <c r="AN100" s="16"/>
       <c r="AO100" s="16"/>
-      <c r="AP100" s="29" t="s">
-        <v>381</v>
+      <c r="AP100" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12171,8 +11985,9 @@
       <c r="AO101" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="AP101" s="29" t="s">
-        <v>382</v>
+      <c r="AP101" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12277,8 +12092,9 @@
       </c>
       <c r="AN102" s="26"/>
       <c r="AO102" s="26"/>
-      <c r="AP102" s="29" t="s">
-        <v>383</v>
+      <c r="AP102" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/2008GC001957</v>
       </c>
     </row>
     <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36724,7 +36540,6 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/2008GC001957" xr:uid="{6E2BB9DC-A5C3-8E47-A42F-CAAAA3C44104}"/>
-    <hyperlink ref="AP10:AP102" r:id="rId2" display="https://doi.org/10.1029/2008GC001957" xr:uid="{938CF189-C7F1-B544-8F1B-B826FFB5261F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
